--- a/similarities/split_global/harmonic_similarity_timestamps_71.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_71.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,750 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>isophonics_184</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>isophonics_144</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['A', 'A:min', 'G']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['Bb:maj', 'Eb:maj', 'Bb:maj', 'Eb:maj']]</t>
+          <t>['E', 'E:min', 'D']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
+          <t>('0:00:01.148857', '0:00:08.899614')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:03:37.493000', '0:03:42.528000')]</t>
+          <t>('0:00:43.201000', '0:00:48.573000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-184#t=1.148857</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=217.493']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-144#t=43.201</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>isophonics_235</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>schubert-winterreise_31</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['Bb:7', 'Eb', 'Bb']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B', 'E']]</t>
+          <t>['G:7', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:11.260000', '0:00:13.880000')]</t>
+          <t>('0:00:49.981485', '0:00:59.292687')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:00.459543', '0:00:13.717755')]</t>
+          <t>('0:00:06.060000', '0:00:11.040000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=11.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=49.981485</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=0.459543']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=6.06</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>schubert-winterreise_47</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['B', 'F#', 'B']]</t>
+          <t>['C:7', 'F:min/C', 'F:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj']]</t>
+          <t>['A:7', 'D:min', 'D:min/A']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:24.838594', '0:00:43.252018')]</t>
+          <t>('0:00:32.320000', '0:00:33.880000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:02.560000', '0:00:21.440000')]</t>
+          <t>('0:00:23.600000', '0:00:40.320000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=24.838594']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=32.32</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=2.56']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=23.6</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>schubert-winterreise_93</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G', 'D:7', 'G']]</t>
+          <t>['C#:maj/G#', 'G#:7', 'C#:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:10.980000', '0:01:20.440000')]</t>
+          <t>('0:00:37.540000', '0:00:42.720000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:11.550000', '0:00:25.740000')]</t>
+          <t>('0:00:36.600000', '0:00:39')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=70.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=37.54</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-93#t=36.6</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>isophonics_43</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['E', 'B', 'E']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['F#:maj', 'C#:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:07.800000', '0:00:13.900000')]</t>
+          <t>('0:00:01.480839', '0:00:13.717755')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:18.240000', '0:00:29.100000')]</t>
+          <t>('0:00:46.560000', '0:00:49.080000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=7.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=1.480839</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=18.24']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=46.56</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
+          <t>isophonics_133</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'F:maj/C', 'C:maj']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:min', 'F', 'C']]</t>
+          <t>['D/3', 'G', 'D']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:38.720000', '0:01:44.600000')]</t>
+          <t>('0:00:55.680000', '0:01:02.280000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:03.560725', '0:00:10.073922')]</t>
+          <t>('0:00:57.251357', '0:01:13.909779')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=98.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=55.68</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=3.560725']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=57.251357</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>schubert-winterreise_146</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['E:maj/B', 'B:7', 'E:maj/B'], ['D#:min/A#', 'A#:7', 'D#:min']]</t>
+          <t>['B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj/G'], ['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['C:min', 'F:min', 'C:min/G']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:38.060000', '0:01:45.600000'), ('0:02:14.220000', '0:02:19.560000')]</t>
+          <t>('0:00:27.460000', '0:00:36.020000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:27.060000', '0:01:32.420000'), ('0:00:36.660000', '0:00:43.940000')]</t>
+          <t>('0:00:09.720000', '0:00:13')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=98.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=134.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=27.46</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=87.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=36.66']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=9.72</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_39</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:00.760000', '0:01:06.820000')]</t>
+          <t>('0:00:39.020000', '0:00:47.120000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:27.160000', '0:00:38.460000')]</t>
+          <t>('0:00:35.860000', '0:00:39.460000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=60.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=39.02</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-39#t=27.16']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=35.86</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_93</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['E:min', 'B:(3,5,b7,b9)', 'E:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:14.700000', '0:01:34.120000')]</t>
+          <t>('0:01:07.700000', '0:01:14.300000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:17.180000', '0:00:48.160000')]</t>
+          <t>('0:01:30.740000', '0:01:49.700000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=74.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-93#t=67.7</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=17.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=90.74</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>jaah_71</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:00.300000', '0:00:06.820000')]</t>
+          <t>('0:01:16.630000', '0:01:32.860000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:08.220000', '0:00:22.200000')]</t>
+          <t>('0:00:35.860000', '0:00:39.460000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=0.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-71#t=76.63</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=8.22']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=35.86</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>schubert-winterreise_68</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'A']]</t>
+          <t>['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:02:06.506000', '0:02:21.245000')]</t>
+          <t>('0:01:53.140000', '0:01:54.880000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:31.840929', '0:00:39.410634')]</t>
+          <t>('0:00:33', '0:00:48.220000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=126.506']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=113.14</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=31.840929']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=33.0</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_298</t>
+          <t>schubert-winterreise_46</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_218</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'C']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'F']]</t>
+          <t>['G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:11.337709', '0:00:19.847823')]</t>
+          <t>('0:00:21.140000', '0:00:27.920000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:05.776000', '0:00:09.009000')]</t>
+          <t>('0:00:04.160000', '0:00:08.800000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-298#t=11.337709']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=21.14</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=5.776']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=4.16</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_58</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_38</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:min7', 'F:7']]</t>
+          <t>['G#:7', 'C#', 'A#:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:min7', 'G:7']]</t>
+          <t>['A:7', 'D:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:24.660000', '0:00:25.920000')]</t>
+          <t>('0:00:38.360000', '0:00:40.940000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:58.470000', '0:01:03.930000')]</t>
+          <t>('0:00:36.740000', '0:00:42.320000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-58#t=24.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=38.36</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-38#t=58.47']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=36.74</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_245</t>
+          <t>schubert-winterreise_194</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min', 'F#:min', 'B:min', 'F#:min']]</t>
+          <t>['C:min', 'G:7/D', 'C:min/D#', 'C:maj/E']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min', 'F:min', 'C:min']]</t>
+          <t>['G:min', 'D:7', 'G:min', 'G:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:36.732085', '0:00:43.802561')]</t>
+          <t>('0:00:02', '0:00:05')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:03.584000', '0:00:17.506000')]</t>
+          <t>('0:00:48.420000', '0:00:58.560000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-245#t=36.732085']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=3.584']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=48.42</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>jaah_6</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:14.879000', '0:01:25.949000')]</t>
+          <t>('0:00:01.340000', '0:00:08.860000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
+          <t>('0:00:14.300000', '0:00:15.210000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=1.34</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
